--- a/test/Data/bin/a.xlsx
+++ b/test/Data/bin/a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,6 +712,71 @@
         <v>24</v>
       </c>
     </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/Data/bin/a.xlsx
+++ b/test/Data/bin/a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,7 +32,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q.1</t>
+    <t>m.f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.1.f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.1.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.1.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.1.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.1.q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.2.f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.2.g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.2.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.2.p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.2.q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dxf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -40,79 +116,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m.f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.1.f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.1.g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.1.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.1.p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.1.q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.2.f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.2.g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.2.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.2.p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.2.q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dxf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zyo</t>
+    <t>q.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,31 +566,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="11" max="11" width="21.375" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="19.125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="15.875" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="18" max="18" width="12.5" customWidth="1"/>
-    <col min="19" max="19" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="13" max="13" width="21.375" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="15.875" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
     <col min="20" max="20" width="12.5" customWidth="1"/>
-    <col min="21" max="21" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="13.25" customWidth="1"/>
+    <col min="22" max="22" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,58 +604,64 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -658,61 +672,67 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="G2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2">
+        <v>13</v>
+      </c>
+      <c r="V2">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>11</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="S2">
-        <v>13</v>
-      </c>
-      <c r="T2">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -723,58 +743,64 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>12</v>
+      </c>
+      <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>11</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>12</v>
-      </c>
-      <c r="S3">
-        <v>13</v>
-      </c>
-      <c r="T3">
-        <v>14</v>
-      </c>
-      <c r="U3" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test/Data/bin/a.xlsx
+++ b/test/Data/bin/a.xlsx
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>q.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>q.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>q.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +569,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,16 +604,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
